--- a/mapping_schemes/east/RWA_RES.xlsx
+++ b/mapping_schemes/east/RWA_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/East/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982661A1-EDEF-4047-9E0F-0CE35C541697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F00F59-AC61-C141-B71D-8797844C57B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="1600" windowWidth="13400" windowHeight="16100" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="13580" yWindow="1600" windowWidth="13400" windowHeight="16100" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="86">
   <si>
     <t>MATO</t>
   </si>
@@ -3147,10 +3147,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,27 +3535,36 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
@@ -3656,13 +3665,12 @@
       <c r="A49" s="10"/>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
-      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
@@ -3704,6 +3712,7 @@
       <c r="A57" s="10"/>
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
@@ -3751,9 +3760,9 @@
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
@@ -3768,7 +3777,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -3783,11 +3792,11 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
@@ -3843,6 +3852,11 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3854,7 +3868,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
